--- a/003_Energy/EnergyCMP.xlsx
+++ b/003_Energy/EnergyCMP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Work\Thesis\Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Work\Model_LiION_Battery_Ete2Chem\003_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF4126E-E9A9-41B3-BF7D-81EDD86B6001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24124C1F-2B96-4DB2-8345-027691102259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,13 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,16 +377,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -402,6 +389,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1109,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421EB38-F4A9-47F9-854A-62E3E9F85166}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,25 +1120,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1151,17 +1146,17 @@
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="26">
+      <c r="B2" s="19"/>
+      <c r="C2" s="22">
         <v>44.201699928459078</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2" s="7">
@@ -1172,17 +1167,17 @@
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="27">
+      <c r="B3" s="20"/>
+      <c r="C3" s="23">
         <v>43.121089230262172</v>
       </c>
       <c r="D3" s="6">
         <v>-2.4447265601682436E-2</v>
       </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <v>0</v>
       </c>
       <c r="G3" s="7">
@@ -1193,17 +1188,17 @@
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="27">
+      <c r="B4" s="20"/>
+      <c r="C4" s="23">
         <v>40.059972198708195</v>
       </c>
       <c r="D4" s="6">
         <v>-9.3700643560186911E-2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>-7.0988861510615536E-2</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>0</v>
       </c>
       <c r="G4" s="7">
@@ -1214,17 +1209,17 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27">
+      <c r="B5" s="20"/>
+      <c r="C5" s="23">
         <v>32.834034297989717</v>
       </c>
       <c r="D5" s="6">
         <v>-0.25717711420302947</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>-0.23856203810948839</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>-0.18037800587768482</v>
       </c>
       <c r="G5" s="7">
@@ -1234,10 +1229,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="10"/>
       <c r="H6" s="3"/>
       <c r="J6" s="4"/>
@@ -1246,27 +1241,27 @@
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <f>(1-0.41765)*-1</f>
         <v>-0.58234999999999992</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>38.053885425810435</v>
       </c>
       <c r="D7" s="6">
         <v>-0.13908547663549017</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>-0.11751103450549198</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>-5.0077088494895401E-2</v>
       </c>
       <c r="G7" s="7">
         <v>0.1589768433707309</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29">
+      <c r="H7" s="26"/>
+      <c r="I7" s="24">
         <f>20*LOG(0.41765)</f>
         <v>-7.5837502851624645</v>
       </c>
@@ -1276,27 +1271,27 @@
       <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <f>(1-0.402)*-1</f>
         <v>-0.59799999999999998</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="23">
         <v>38.055177991300006</v>
       </c>
       <c r="D8" s="6">
         <v>-0.13905623419703955</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>-0.11748105925410932</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>-5.0044822733871917E-2</v>
       </c>
       <c r="G8" s="7">
         <v>0.15901621000712532</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="29">
+      <c r="H8" s="26"/>
+      <c r="I8" s="24">
         <f>20*LOG(0.402)</f>
         <v>-7.9154789383105983</v>
       </c>
@@ -1306,27 +1301,27 @@
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <f>(1-0.3176)*-1</f>
         <v>-0.68240000000000001</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <v>38.055309846067786</v>
       </c>
       <c r="D9" s="6">
         <v>-0.13905325117222392</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>-0.11747800147495453</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>-5.0041531299541267E-2</v>
       </c>
       <c r="G9" s="7">
         <v>0.15902022580264358</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="29">
+      <c r="H9" s="26"/>
+      <c r="I9" s="24">
         <f>20*LOG(0.3176)</f>
         <v>-9.9623901248988265</v>
       </c>
@@ -1336,27 +1331,27 @@
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <f>(1-0.0456)*-1</f>
         <v>-0.95440000000000003</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <v>38.055959703332206</v>
       </c>
       <c r="D10" s="6">
         <v>-0.13903854908462385</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>-0.1174629309543341</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>-5.0025309189820441E-2</v>
       </c>
       <c r="G10" s="7">
         <v>0.15904001798713491</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="29">
+      <c r="H10" s="26"/>
+      <c r="I10" s="24">
         <f>20*LOG(0.0456)</f>
         <v>-26.820703146711299</v>
       </c>
@@ -1366,27 +1361,27 @@
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <f>(1-0.0497)*-1</f>
         <v>-0.95030000000000003</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>38.056457402095312</v>
       </c>
       <c r="D11" s="6">
         <v>-0.13902728936466033</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>-0.11745138906678002</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>-5.0012885347870767E-2</v>
       </c>
       <c r="G11" s="7">
         <v>0.15905517600148636</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="29">
+      <c r="H11" s="26"/>
+      <c r="I11" s="24">
         <f>20*LOG(0.0497)</f>
         <v>-26.072872225333356</v>
       </c>
@@ -1395,40 +1390,40 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <f>(1-0.569)*-1</f>
         <v>-0.43100000000000005</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="23">
         <v>39.257990437650264</v>
       </c>
       <c r="D13" s="6">
         <v>-0.1118443294898219</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <v>-8.9587226611632154E-2</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>-2.0019528647695673E-2</v>
       </c>
       <c r="G13" s="7">
         <v>0.19564930953531523</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="29">
+      <c r="H13" s="26"/>
+      <c r="I13" s="24">
         <f>20*LOG(0.569)</f>
         <v>-4.8977546720985767</v>
       </c>
@@ -1438,27 +1433,27 @@
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <f>(1-0.6275)*-1</f>
         <v>-0.37250000000000005</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="23">
         <v>39.255982763248895</v>
       </c>
       <c r="D14" s="6">
         <v>-0.11188975024071199</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>-8.9633785602539096E-2</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>-2.0069645367482965E-2</v>
       </c>
       <c r="G14" s="7">
         <v>0.19558816339703844</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29">
+      <c r="H14" s="26"/>
+      <c r="I14" s="24">
         <f>20*LOG(0.6275)</f>
         <v>-4.0477253969384854</v>
       </c>
@@ -1468,27 +1463,27 @@
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <f>(1-0.509)*-1</f>
         <v>-0.49099999999999999</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>39.257226536636679</v>
       </c>
       <c r="D15" s="6">
         <v>-0.11186161165351291</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>-8.9604941864823123E-2</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="17">
         <v>-2.0038597582886033E-2</v>
       </c>
       <c r="G15" s="7">
         <v>0.19562604401129671</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="29">
+      <c r="H15" s="26"/>
+      <c r="I15" s="24">
         <f>20*LOG(0.509)</f>
         <v>-5.865644353264825</v>
       </c>
@@ -1498,97 +1493,118 @@
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <f>(1-0.273)*-1</f>
         <v>-0.72699999999999998</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="23">
         <v>39.257981268230623</v>
       </c>
       <c r="D16" s="6">
         <v>-0.11184453693477664</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>-8.9587439255139192E-2</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>-2.0019757540007326E-2</v>
       </c>
       <c r="G16" s="7">
         <v>0.19564903026961311</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="29">
+      <c r="I16" s="24">
         <f>20*LOG(0.273)</f>
         <v>-11.27674705918488</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="33">
         <f>(1-0.299)*-1</f>
         <v>-0.70100000000000007</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <v>39.258512843212678</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <v>-0.11183251081399587</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>-8.9575111760830856E-2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>-2.0006488060452559E-2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="17">
         <v>0.19566522002495146</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="29">
+      <c r="I17" s="24">
         <f>20*LOG(0.299)</f>
         <v>-10.486576233511407</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C18">
+      <c r="B19" s="18"/>
+      <c r="C19" s="9">
         <v>40.132431151894899</v>
       </c>
-      <c r="F18" s="18">
-        <f>(C18-C4)/C4</f>
+      <c r="D19" s="18"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="17">
+        <f>(C19-C4)/C4</f>
         <v>1.8087619438997137E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C19">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9">
         <v>40.1962072572327</v>
       </c>
-      <c r="F19" s="18">
-        <f>(C19-C4)/C4</f>
+      <c r="D20" s="18"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="17">
+        <f>(C20-C4)/C4</f>
         <v>3.4007776602725274E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C20">
+      <c r="B21" s="31"/>
+      <c r="C21" s="29">
         <v>40.3298361589734</v>
       </c>
-      <c r="F20" s="18">
-        <f>(C20-C4)/C4</f>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="15">
+        <f>(C21-C4)/C4</f>
         <v>6.7364989403039905E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/003_Energy/EnergyCMP.xlsx
+++ b/003_Energy/EnergyCMP.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Work\Model_LiION_Battery_Ete2Chem\003_Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Work\Thesis2\Archive\003_Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24124C1F-2B96-4DB2-8345-027691102259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9AD4D-868E-4A39-862F-F9CC87A5AE7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="4395" windowWidth="21600" windowHeight="11430" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="Temp +-2" sheetId="3" r:id="rId3"/>
+    <sheet name="Temp +-1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +160,15 @@
   </si>
   <si>
     <t>T+2C</t>
+  </si>
+  <si>
+    <t>1C_Dsn_m2T</t>
+  </si>
+  <si>
+    <t>1C_Dsn_p2T</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
@@ -169,13 +180,18 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -332,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -397,12 +413,52 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -412,6 +468,1119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8773252728654814E-2"/>
+          <c:y val="0.18072153325817361"/>
+          <c:w val="0.8839043428997605"/>
+          <c:h val="0.52855638666517812"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Temp +2°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF5050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Temp +-2'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E0A8-4E47-91D1-ED7E4F64DC38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Temp std</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Dsn</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Dsp</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Dchem</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>i00n</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>i00p</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.43100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.37250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.70100000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2553-4679-AEAE-C52EC448D98B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="1458794031"/>
+        <c:axId val="1458795279"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Temp -2°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Temp +-2'!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.31999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.57000000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E0A8-4E47-91D1-ED7E4F64DC38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-100"/>
+        <c:axId val="723344287"/>
+        <c:axId val="723345951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1458794031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458795279"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1458795279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458794031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723345951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723344287"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="723344287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723345951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87585398798556313"/>
+          <c:y val="1.4196173478627594E-2"/>
+          <c:w val="0.12414601201443684"/>
+          <c:h val="0.14028643707072952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169993</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>259052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80700AC-8D13-4501-9195-19E2340C0F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02049</cdr:x>
+      <cdr:y>0.78982</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97814</cdr:x>
+      <cdr:y>0.96831</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFBEEEC-34E7-414D-995F-2DE2DB93FBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="114300" y="3608070"/>
+          <a:ext cx="5341620" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Variazioni</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> dei parametri chimici del modello ElettroChimco per avere una variazione dell'energia del 2% rispetto ad una scarica costante a 1C</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,16 +1886,16 @@
       <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -786,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -806,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,7 +2022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,7 +2049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,7 +2103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -961,7 +2130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,7 +2157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +2184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +2211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +2238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1104,22 +2273,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421EB38-F4A9-47F9-854A-62E3E9F85166}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +2311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -1184,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -1205,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
@@ -1237,12 +2406,11 @@
       <c r="H6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="21">
-        <f>(1-0.41765)*-1</f>
         <v>-0.58234999999999992</v>
       </c>
       <c r="C7" s="23">
@@ -1261,18 +2429,14 @@
         <v>0.1589768433707309</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="24">
-        <f>20*LOG(0.41765)</f>
-        <v>-7.5837502851624645</v>
-      </c>
+      <c r="I7" s="24"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="21">
-        <f>(1-0.402)*-1</f>
         <v>-0.59799999999999998</v>
       </c>
       <c r="C8" s="23">
@@ -1291,18 +2455,14 @@
         <v>0.15901621000712532</v>
       </c>
       <c r="H8" s="26"/>
-      <c r="I8" s="24">
-        <f>20*LOG(0.402)</f>
-        <v>-7.9154789383105983</v>
-      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="21">
-        <f>(1-0.3176)*-1</f>
         <v>-0.68240000000000001</v>
       </c>
       <c r="C9" s="23">
@@ -1321,18 +2481,14 @@
         <v>0.15902022580264358</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="24">
-        <f>20*LOG(0.3176)</f>
-        <v>-9.9623901248988265</v>
-      </c>
+      <c r="I9" s="24"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="21">
-        <f>(1-0.0456)*-1</f>
         <v>-0.95440000000000003</v>
       </c>
       <c r="C10" s="23">
@@ -1351,18 +2507,14 @@
         <v>0.15904001798713491</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="24">
-        <f>20*LOG(0.0456)</f>
-        <v>-26.820703146711299</v>
-      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="21">
-        <f>(1-0.0497)*-1</f>
         <v>-0.95030000000000003</v>
       </c>
       <c r="C11" s="23">
@@ -1381,13 +2533,10 @@
         <v>0.15905517600148636</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="24">
-        <f>20*LOG(0.0497)</f>
-        <v>-26.072872225333356</v>
-      </c>
+      <c r="I11" s="24"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="18"/>
@@ -1399,12 +2548,11 @@
       <c r="I12" s="25"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="21">
-        <f>(1-0.569)*-1</f>
         <v>-0.43100000000000005</v>
       </c>
       <c r="C13" s="23">
@@ -1423,18 +2571,14 @@
         <v>0.19564930953531523</v>
       </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="24">
-        <f>20*LOG(0.569)</f>
-        <v>-4.8977546720985767</v>
-      </c>
+      <c r="I13" s="24"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="21">
-        <f>(1-0.6275)*-1</f>
         <v>-0.37250000000000005</v>
       </c>
       <c r="C14" s="23">
@@ -1453,18 +2597,14 @@
         <v>0.19558816339703844</v>
       </c>
       <c r="H14" s="26"/>
-      <c r="I14" s="24">
-        <f>20*LOG(0.6275)</f>
-        <v>-4.0477253969384854</v>
-      </c>
+      <c r="I14" s="24"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="21">
-        <f>(1-0.509)*-1</f>
         <v>-0.49099999999999999</v>
       </c>
       <c r="C15" s="23">
@@ -1483,18 +2623,14 @@
         <v>0.19562604401129671</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="24">
-        <f>20*LOG(0.509)</f>
-        <v>-5.865644353264825</v>
-      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="21">
-        <f>(1-0.273)*-1</f>
         <v>-0.72699999999999998</v>
       </c>
       <c r="C16" s="23">
@@ -1513,17 +2649,13 @@
         <v>0.19564903026961311</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="24">
-        <f>20*LOG(0.273)</f>
-        <v>-11.27674705918488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="33">
-        <f>(1-0.299)*-1</f>
         <v>-0.70100000000000007</v>
       </c>
       <c r="C17" s="23">
@@ -1542,12 +2674,9 @@
         <v>0.19566522002495146</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="24">
-        <f>20*LOG(0.299)</f>
-        <v>-10.486576233511407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1556,7 +2685,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
@@ -1572,7 +2701,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +2717,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>41</v>
       </c>
@@ -1604,8 +2733,1463 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>38.806056620061156</v>
+      </c>
+      <c r="D23" s="34">
+        <v>-0.1220686832662732</v>
+      </c>
+      <c r="E23" s="34">
+        <v>-0.10006780179320578</v>
+      </c>
+      <c r="F23" s="34">
+        <v>-3.1300959781681369E-2</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.18188512163542081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>39.66438507569606</v>
+      </c>
+      <c r="D24" s="34">
+        <v>-0.10265023426942199</v>
+      </c>
+      <c r="E24" s="34">
+        <v>-8.0162728174783981E-2</v>
+      </c>
+      <c r="F24" s="34">
+        <v>-9.8748726297141817E-3</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0.20802654695784781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A80243-B8E1-4C2B-B2F2-FDE93B983EDB}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="35">
+        <v>298</v>
+      </c>
+      <c r="D2" s="22">
+        <v>44.201699928459078</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="36">
+        <v>298</v>
+      </c>
+      <c r="D3" s="23">
+        <v>43.121089230262172</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-2.4447265601682436E-2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="36">
+        <v>298</v>
+      </c>
+      <c r="D4" s="23">
+        <v>40.059972198708195</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-9.3700643560186911E-2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-7.0988861510615536E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="36">
+        <v>298</v>
+      </c>
+      <c r="D5" s="23">
+        <v>32.834034297989717</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-0.25717711420302947</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.23856203810948839</v>
+      </c>
+      <c r="G5" s="17">
+        <v>-0.18037800587768482</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="21">
+        <f>(1-0.569)*-1</f>
+        <v>-0.43100000000000005</v>
+      </c>
+      <c r="C7" s="38">
+        <v>300</v>
+      </c>
+      <c r="D7" s="23">
+        <v>39.66438507569606</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-0.10265023426942199</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-8.0162728174783981E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>-9.8748726297141817E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.20802654695784781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="21">
+        <f>(1-0.6275)*-1</f>
+        <v>-0.37250000000000005</v>
+      </c>
+      <c r="C8" s="38">
+        <v>300</v>
+      </c>
+      <c r="D8" s="23">
+        <v>39.591000480469525</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-0.10431045537732755</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-8.1864554277428767E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-1.1706740981058218E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.2057915308595967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="21">
+        <f>(1-0.509)*-1</f>
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="C9" s="38">
+        <v>300</v>
+      </c>
+      <c r="D9" s="23">
+        <v>39.574086789345444</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-0.10469310335583192</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-8.2256791380572528E-2</v>
+      </c>
+      <c r="G9" s="17">
+        <v>-1.2128950238722822E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.20527640405639674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="21">
+        <f>(1-0.273)*-1</f>
+        <v>-0.72699999999999998</v>
+      </c>
+      <c r="C10" s="38">
+        <v>300</v>
+      </c>
+      <c r="D10" s="23">
+        <v>39.518595248330861</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-0.1059485198014527</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-8.354366845174907E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>-1.3514161909348291E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.20358634244194629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="33">
+        <f>(1-0.299)*-1</f>
+        <v>-0.70100000000000007</v>
+      </c>
+      <c r="C11" s="38">
+        <v>300</v>
+      </c>
+      <c r="D11" s="23">
+        <v>39.525293871009694</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-0.10579697308063257</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-8.338832398345275E-2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>-1.3346947048449086E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.20379035705123977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21">
+        <f>(1-0.569)*-1</f>
+        <v>-0.43100000000000005</v>
+      </c>
+      <c r="C12" s="36">
+        <v>296</v>
+      </c>
+      <c r="D12" s="23">
+        <v>38.806056620061156</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-0.1220686832662732</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-0.10006780179320578</v>
+      </c>
+      <c r="G12" s="17">
+        <v>-3.1300959781681369E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.18188512163542081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="21">
+        <f>(1-0.6275)*-1</f>
+        <v>-0.37250000000000005</v>
+      </c>
+      <c r="C13" s="36">
+        <v>296</v>
+      </c>
+      <c r="D13" s="23">
+        <v>38.901002610686113</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-0.11992066654341801</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-9.7865955960463588E-2</v>
+      </c>
+      <c r="G13" s="17">
+        <v>-2.8930863513166757E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.18477681595976922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21">
+        <f>(1-0.509)*-1</f>
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="C14" s="36">
+        <v>296</v>
+      </c>
+      <c r="D14" s="23">
+        <v>38.907719544471732</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-0.11976870556009633</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-9.7710186848283906E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-2.8763191559918744E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.18498138825584035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="21">
+        <f>(1-0.273)*-1</f>
+        <v>-0.72699999999999998</v>
+      </c>
+      <c r="C15" s="36">
+        <v>296</v>
+      </c>
+      <c r="D15" s="23">
+        <v>38.971010819373134</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-0.11833683133345256</v>
+      </c>
+      <c r="F15" s="17">
+        <v>-9.6242429979633545E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>-2.7183278458944513E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.18690900014559456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="33">
+        <f>(1-0.299)*-1</f>
+        <v>-0.70100000000000007</v>
+      </c>
+      <c r="C16" s="36">
+        <v>296</v>
+      </c>
+      <c r="D16" s="23">
+        <v>38.973565034426414</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-0.11827904588498758</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-9.6183196432919532E-2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>-2.7119518677968871E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.18698679183668251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="21">
+        <v>-0.51</v>
+      </c>
+      <c r="C18" s="38">
+        <v>298</v>
+      </c>
+      <c r="D18" s="23">
+        <v>39.66438507569606</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-0.10265023426942199</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-8.0162728174783981E-2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>-9.8748726297141817E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.20802654695784781</v>
+      </c>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="21">
+        <v>-0.45999999999999996</v>
+      </c>
+      <c r="C19" s="38">
+        <v>298</v>
+      </c>
+      <c r="D19" s="23">
+        <v>39.591000480469525</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-0.10431045537732755</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-8.1864554277428767E-2</v>
+      </c>
+      <c r="G19" s="17">
+        <v>-1.1706740981058218E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.2057915308595967</v>
+      </c>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21">
+        <v>-0.57000000000000006</v>
+      </c>
+      <c r="C20" s="38">
+        <v>298</v>
+      </c>
+      <c r="D20" s="23">
+        <v>39.574086789345444</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-0.10469310335583192</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-8.2256791380572528E-2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>-1.2128950238722822E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.20527640405639674</v>
+      </c>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21">
+        <v>-0.82000000000000006</v>
+      </c>
+      <c r="C21" s="38">
+        <v>298</v>
+      </c>
+      <c r="D21" s="23">
+        <v>39.518595248330861</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-0.1059485198014527</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-8.354366845174907E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>-1.3514161909348291E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.20358634244194629</v>
+      </c>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="21">
+        <v>-0.81</v>
+      </c>
+      <c r="C22" s="38">
+        <v>298</v>
+      </c>
+      <c r="D22" s="23">
+        <v>39.525293871009694</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-0.10579697308063257</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-8.338832398345275E-2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>-1.3346947048449086E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.20379035705123977</v>
+      </c>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="21">
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="C23" s="38">
+        <v>298</v>
+      </c>
+      <c r="D23" s="23">
+        <v>38.806056620061156</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-0.1220686832662732</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-0.10006780179320578</v>
+      </c>
+      <c r="G23" s="17">
+        <v>-3.1300959781681369E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.18188512163542081</v>
+      </c>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="C24" s="38">
+        <v>298</v>
+      </c>
+      <c r="D24" s="23">
+        <v>38.901002610686113</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-0.11992066654341801</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-9.7865955960463588E-2</v>
+      </c>
+      <c r="G24" s="17">
+        <v>-2.8930863513166757E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.18477681595976922</v>
+      </c>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="21">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="C25" s="38">
+        <v>298</v>
+      </c>
+      <c r="D25" s="23">
+        <v>38.907719544471732</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-0.11976870556009633</v>
+      </c>
+      <c r="F25" s="17">
+        <v>-9.7710186848283906E-2</v>
+      </c>
+      <c r="G25" s="17">
+        <v>-2.8763191559918744E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.18498138825584035</v>
+      </c>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="21">
+        <v>-0.59499999999999997</v>
+      </c>
+      <c r="C26" s="38">
+        <v>298</v>
+      </c>
+      <c r="D26" s="23">
+        <v>38.971010819373134</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-0.11833683133345256</v>
+      </c>
+      <c r="F26" s="17">
+        <v>-9.6242429979633545E-2</v>
+      </c>
+      <c r="G26" s="17">
+        <v>-2.7183278458944513E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.18690900014559456</v>
+      </c>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="40">
+        <v>-0.57000000000000006</v>
+      </c>
+      <c r="C27" s="47">
+        <v>298</v>
+      </c>
+      <c r="D27" s="41">
+        <v>38.973565034426414</v>
+      </c>
+      <c r="E27" s="42">
+        <v>-0.11827904588498758</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-9.6183196432919532E-2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-2.7119518677968871E-2</v>
+      </c>
+      <c r="H27" s="43">
+        <v>0.18698679183668251</v>
+      </c>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C56BE52-BDFB-46F2-A594-6E0127B087D4}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="35">
+        <v>298</v>
+      </c>
+      <c r="D2" s="22">
+        <v>44.201699928459078</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="36">
+        <v>298</v>
+      </c>
+      <c r="D3" s="23">
+        <v>43.121089230262172</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-2.4447265601682436E-2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="36">
+        <v>298</v>
+      </c>
+      <c r="D4" s="23">
+        <v>40.059972198708195</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-9.3700643560186911E-2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-7.0988861510615536E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="36">
+        <v>298</v>
+      </c>
+      <c r="D5" s="23">
+        <v>32.834034297989717</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-0.25717711420302947</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-0.23856203810948839</v>
+      </c>
+      <c r="G5" s="17">
+        <v>-0.18037800587768482</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="21">
+        <v>-0.43100000000000005</v>
+      </c>
+      <c r="C7" s="38">
+        <v>299</v>
+      </c>
+      <c r="D7" s="23">
+        <v>39.463672609866499</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-0.10719106564365501</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-8.4817352383319097E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>-1.4885172308255999E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.20191360743881101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="21">
+        <v>-0.37250000000000005</v>
+      </c>
+      <c r="C8" s="38">
+        <v>299</v>
+      </c>
+      <c r="D8" s="23">
+        <v>39.424909215560298</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-0.10806803178678701</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-8.5716295220758701E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-1.5852806387327799E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.200733021649251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="21">
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="C9" s="38">
+        <v>299</v>
+      </c>
+      <c r="D9" s="23">
+        <v>39.421588192831898</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-0.108143165157988</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-8.5793311427624197E-2</v>
+      </c>
+      <c r="G9" s="17">
+        <v>-1.5935707661246499E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.200631875908271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="21">
+        <v>-0.72699999999999998</v>
+      </c>
+      <c r="C10" s="38">
+        <v>299</v>
+      </c>
+      <c r="D10" s="23">
+        <v>39.393514229923497</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-0.108778298262684</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-8.6444360911984305E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>-1.6636506023490798E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.19977684960679401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="33">
+        <v>-0.70100000000000007</v>
+      </c>
+      <c r="C11" s="38">
+        <v>299</v>
+      </c>
+      <c r="D11" s="23">
+        <v>39.393093753915302</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-0.108787810928686</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-8.6454111964559002E-2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>-1.6647002186745301E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.19976404350431001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21">
+        <v>-0.43100000000000005</v>
+      </c>
+      <c r="C12" s="36">
+        <v>297</v>
+      </c>
+      <c r="D12" s="23">
+        <v>39.038934726204097</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-0.116800150460525</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-9.4667240019374696E-2</v>
+      </c>
+      <c r="G12" s="17">
+        <v>-2.54877229429793E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.18897770441185899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="21">
+        <v>-0.37250000000000005</v>
+      </c>
+      <c r="C13" s="36">
+        <v>297</v>
+      </c>
+      <c r="D13" s="23">
+        <v>39.084065793251597</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-0.11577912486376001</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-9.3620627611081794E-2</v>
+      </c>
+      <c r="G13" s="17">
+        <v>-2.43611353651438E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.190352225332374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21">
+        <v>-0.49099999999999999</v>
+      </c>
+      <c r="C14" s="36">
+        <v>297</v>
+      </c>
+      <c r="D14" s="23">
+        <v>39.0887213870624</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-0.115673798737879</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-9.3512662021763102E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-2.42449197625039E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.19049401704059299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="21">
+        <v>-0.72699999999999998</v>
+      </c>
+      <c r="C15" s="36">
+        <v>297</v>
+      </c>
+      <c r="D15" s="23">
+        <v>39.111852113668903</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-0.11515049925745199</v>
+      </c>
+      <c r="F15" s="17">
+        <v>-9.2976248702446598E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>-2.3667517299721101E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.191198491135875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="33">
+        <v>-0.70100000000000007</v>
+      </c>
+      <c r="C16" s="36">
+        <v>297</v>
+      </c>
+      <c r="D16" s="23">
+        <v>39.121399470103903</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-0.114934504025359</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-9.2754840648861095E-2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>-2.3429190713082401E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.19148926735753299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="C18" s="38">
+        <v>298</v>
+      </c>
+      <c r="D18" s="23">
+        <v>39.463672609866499</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-0.10719106564365501</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-8.4817352383319097E-2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>-1.4885172308255999E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.20191360743881101</v>
+      </c>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="21">
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="C19" s="38">
+        <v>298</v>
+      </c>
+      <c r="D19" s="23">
+        <v>39.424909215560298</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-0.10806803178678701</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-8.5716295220758701E-2</v>
+      </c>
+      <c r="G19" s="17">
+        <v>-1.5852806387327799E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.200733021649251</v>
+      </c>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21">
+        <v>-0.43</v>
+      </c>
+      <c r="C20" s="38">
+        <v>298</v>
+      </c>
+      <c r="D20" s="23">
+        <v>39.421588192831898</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-0.108143165157988</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-8.5793311427624197E-2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>-1.5935707661246499E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.200631875908271</v>
+      </c>
+      <c r="J20" s="48">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K20">
+        <f>1-J20</f>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="C21" s="38">
+        <v>298</v>
+      </c>
+      <c r="D21" s="23">
+        <v>39.393514229923497</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-0.108778298262684</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-8.6444360911984305E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>-1.6636506023490798E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.19977684960679401</v>
+      </c>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="21">
+        <v>-0.65</v>
+      </c>
+      <c r="C22" s="38">
+        <v>298</v>
+      </c>
+      <c r="D22" s="23">
+        <v>39.393093753915302</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-0.108787810928686</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-8.6454111964559002E-2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>-1.6647002186745301E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.19976404350431001</v>
+      </c>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="21">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="C23" s="38">
+        <v>298</v>
+      </c>
+      <c r="D23" s="23">
+        <v>39.038934726204097</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-0.116800150460525</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-9.4667240019374696E-2</v>
+      </c>
+      <c r="G23" s="17">
+        <v>-2.54877229429793E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.18897770441185899</v>
+      </c>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="21">
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="C24" s="38">
+        <v>298</v>
+      </c>
+      <c r="D24" s="23">
+        <v>39.084065793251597</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-0.11577912486376001</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-9.3620627611081794E-2</v>
+      </c>
+      <c r="G24" s="17">
+        <v>-2.43611353651438E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.190352225332374</v>
+      </c>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="21">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="C25" s="38">
+        <v>298</v>
+      </c>
+      <c r="D25" s="23">
+        <v>39.0887213870624</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-0.115673798737879</v>
+      </c>
+      <c r="F25" s="17">
+        <v>-9.3512662021763102E-2</v>
+      </c>
+      <c r="G25" s="17">
+        <v>-2.42449197625039E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.19049401704059299</v>
+      </c>
+      <c r="J25" s="48">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="21">
+        <v>-0.78</v>
+      </c>
+      <c r="C26" s="38">
+        <v>298</v>
+      </c>
+      <c r="D26" s="23">
+        <v>39.111852113668903</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-0.11515049925745199</v>
+      </c>
+      <c r="F26" s="17">
+        <v>-9.2976248702446598E-2</v>
+      </c>
+      <c r="G26" s="17">
+        <v>-2.3667517299721101E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.191198491135875</v>
+      </c>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="40">
+        <v>-0.755</v>
+      </c>
+      <c r="C27" s="47">
+        <v>298</v>
+      </c>
+      <c r="D27" s="41">
+        <v>39.121399470103903</v>
+      </c>
+      <c r="E27" s="42">
+        <v>-0.114934504025359</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-9.2754840648861095E-2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-2.3429190713082401E-2</v>
+      </c>
+      <c r="H27" s="43">
+        <v>0.19148926735753299</v>
+      </c>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>